--- a/data/trans_camb/P16A18-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Clase-trans_camb.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas</t>
+          <t>Mujeres menores de 55 años que han consumido anticonceptivos en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A18-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Clase-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.719766392142628</v>
+        <v>-8.123869398856941</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-13.92164605443037</v>
+        <v>-12.97575718762034</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-16.56522213621243</v>
+        <v>-16.65075363312722</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.203377259912753</v>
+        <v>3.727037388483583</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-3.265208553601077</v>
+        <v>-2.727971876556295</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-7.637884236275997</v>
+        <v>-7.541248790105441</v>
       </c>
     </row>
     <row r="7">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4575273193474017</v>
+        <v>-0.4698484326402216</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7682904333266064</v>
+        <v>-0.7608009559586323</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.9276257062298101</v>
+        <v>-0.92326711516188</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4273944214504332</v>
+        <v>0.3634128837423332</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.2543513683649055</v>
+        <v>-0.1866376182690803</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.6673309277643757</v>
+        <v>-0.6481440279206717</v>
       </c>
     </row>
     <row r="10">
@@ -696,7 +696,7 @@
         <v>-4.524043721276688</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-9.181651541570016</v>
+        <v>-9.181651541570018</v>
       </c>
     </row>
     <row r="11">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.643252772533442</v>
+        <v>-9.209716326319828</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.942099490397583</v>
+        <v>-9.179885281477986</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-13.33093959659406</v>
+        <v>-13.31224245208123</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.69170188214844</v>
+        <v>1.198206119423158</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5968247479153658</v>
+        <v>0.3975161004142314</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-4.634837047250175</v>
+        <v>-4.958327057662458</v>
       </c>
     </row>
     <row r="13">
@@ -747,7 +747,7 @@
         <v>-0.342798179402351</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.6957168467569047</v>
+        <v>-0.6957168467569048</v>
       </c>
     </row>
     <row r="14">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.569962479835577</v>
+        <v>-0.5919061153694202</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5812992990813141</v>
+        <v>-0.5860762511796473</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.8548124195532363</v>
+        <v>-0.8560539353386176</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.197182370273649</v>
+        <v>0.1181811123602907</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1082948090224869</v>
+        <v>0.06447209236287207</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.4162245268972052</v>
+        <v>-0.4351049233258553</v>
       </c>
     </row>
     <row r="16">
@@ -802,7 +802,7 @@
         <v>-2.745247017529452</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-1.768592369485797</v>
+        <v>-1.768592369485798</v>
       </c>
     </row>
     <row r="17">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.140866436036604</v>
+        <v>-4.877425086418604</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.141853663244119</v>
+        <v>-9.079834741590414</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.780745346946061</v>
+        <v>-7.70157366322024</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.394099819291975</v>
+        <v>7.508243353033235</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.113892809266436</v>
+        <v>3.573969141738019</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.752866812035844</v>
+        <v>5.416476604522905</v>
       </c>
     </row>
     <row r="19">
@@ -853,7 +853,7 @@
         <v>-0.3705484836405284</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2387214033952194</v>
+        <v>-0.2387214033952195</v>
       </c>
     </row>
     <row r="20">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4891516889804323</v>
+        <v>-0.4879689870840443</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8416297598550989</v>
+        <v>-0.8251252713089849</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.79881505218066</v>
+        <v>-0.7828891218504098</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.809969933063812</v>
+        <v>1.810590264947233</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9206872020489766</v>
+        <v>1.117739824846626</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.394461480781278</v>
+        <v>1.518260943307611</v>
       </c>
     </row>
     <row r="22">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.615544502210451</v>
+        <v>-2.647881397133181</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.950108426719152</v>
+        <v>-6.348169415464112</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.26646401911138</v>
+        <v>-8.71089608865595</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.154694471131351</v>
+        <v>4.060924899176223</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1139407621677947</v>
+        <v>-0.06758490599419177</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-2.593478747283762</v>
+        <v>-2.832750579236345</v>
       </c>
     </row>
     <row r="25">
@@ -959,7 +959,7 @@
         <v>-0.31409006009111</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.5887718893108211</v>
+        <v>-0.588771889310821</v>
       </c>
     </row>
     <row r="26">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2320831944692648</v>
+        <v>-0.2410439455325044</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5369511915098354</v>
+        <v>-0.5636161978079111</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.7446362434562162</v>
+        <v>-0.7415100721514419</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5629638583377512</v>
+        <v>0.5234104804292705</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.022409330321849</v>
+        <v>-0.00826376629320834</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.3101357681470778</v>
+        <v>-0.344924920398341</v>
       </c>
     </row>
     <row r="28">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.175432607085739</v>
+        <v>-4.114183220326672</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.69930020062438</v>
+        <v>-6.271876676992402</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-10.09311950427451</v>
+        <v>-9.749643849925441</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.37734077631484</v>
+        <v>3.517142669823862</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.509308952934487</v>
+        <v>0.8153204147114382</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-3.431396729247422</v>
+        <v>-3.601782266686876</v>
       </c>
     </row>
     <row r="31">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4047813365956208</v>
+        <v>-0.4044660401443331</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6396667400305046</v>
+        <v>-0.618548338659026</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.9027693487454453</v>
+        <v>-0.9044043496820555</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5396488867050656</v>
+        <v>0.5710276481326908</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1017961688397481</v>
+        <v>0.1402815146806594</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.5569346340363309</v>
+        <v>-0.5351189285389141</v>
       </c>
     </row>
     <row r="34">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>1.058795878137291</v>
+        <v>0.8367668811977168</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.052482760967703</v>
+        <v>-2.107783115621295</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-6.57885859557064</v>
+        <v>-6.711398559836458</v>
       </c>
     </row>
     <row r="36">
@@ -1148,13 +1148,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>6.920456740511114</v>
+        <v>7.208919626255009</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.180919776461326</v>
+        <v>3.245636277661557</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-2.504096396208607</v>
+        <v>-2.630510071345372</v>
       </c>
     </row>
     <row r="37">
@@ -1182,10 +1182,10 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.1510097813747465</v>
+        <v>0.102919357163433</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3132934317802321</v>
+        <v>-0.3216636698568456</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>-1</v>
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.620831777738784</v>
+        <v>1.677016132747219</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.7237234862599704</v>
+        <v>0.822389518946017</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.3863567806287321</v>
+        <v>-0.3268987280040494</v>
       </c>
     </row>
     <row r="40">
@@ -1237,13 +1237,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.9128867990390194</v>
+        <v>-0.9805449598680606</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.092475517030426</v>
+        <v>-4.318119040605663</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-7.4882837609532</v>
+        <v>-7.789935383579973</v>
       </c>
     </row>
     <row r="42">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.434144489245072</v>
+        <v>2.430213558102076</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-1.321480583428268</v>
+        <v>-1.188046284878642</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-4.670366834613116</v>
+        <v>-4.870129269597304</v>
       </c>
     </row>
     <row r="43">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.0964106430573185</v>
+        <v>-0.09893710132493455</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.418741361021993</v>
+        <v>-0.4295133435836433</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.769810234345111</v>
+        <v>-0.7766334707599315</v>
       </c>
     </row>
     <row r="45">
@@ -1305,13 +1305,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3082372847319617</v>
+        <v>0.2931396553694476</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.1580881755762087</v>
+        <v>-0.1349799466403822</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.5824444646936229</v>
+        <v>-0.5947770341406435</v>
       </c>
     </row>
     <row r="46">
